--- a/Testes/Threadring/Threadring - 1000 process.xlsx
+++ b/Testes/Threadring/Threadring - 1000 process.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
   <si>
     <t>Erlang</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t>Scala - Normal</t>
-  </si>
-  <si>
-    <t>Tempos Médios</t>
-  </si>
-  <si>
-    <t>Tempos Totais</t>
-  </si>
-  <si>
-    <t>Scala Default</t>
   </si>
   <si>
     <t>Scala - Default</t>
@@ -137,7 +128,1589 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Threadring - 5KB - 1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>P</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AD$3:$AD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$3:$AE$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4204276.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8697797.1999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40772554.200000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81915599.799999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AF$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java - Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AD$3:$AD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AF$3:$AF$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>57975927.299999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135889401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AG$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scala - Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AD$3:$AD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AG$3:$AG$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33150462.800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66663141.899999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325336875.19999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>636984044.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ooErlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AD$3:$AD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AH$3:$AH$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4005584.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8472807.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40286582.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80795760.099999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AI$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java - MaxHeapSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AD$3:$AD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AI$3:$AI$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>57170530</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AJ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scala - MaxHeapSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AD$3:$AD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$3:$AJ$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33399005.300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67061344.700000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336078305.60000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>650689438.20000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AK$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scala - Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AD$3:$AD$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$3:$AK$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33380726.800000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63803228.399999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>312420371.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>619357796.39999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="93768192"/>
+        <c:axId val="76355200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93768192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76355200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76355200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="93768192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Threadring</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> - 10K - 1000P</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AN$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AN$3:$AN$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4163938.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8469107.6999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42228979.799999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83413883.599999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java - Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AO$3:$AO$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>57872732.899999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135988438.19999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AP$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scala - Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AP$3:$AP$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>46693311.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92481322.099999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>472958446.10000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>915440857.10000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AQ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ooErlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AQ$3:$AQ$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4388442.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8099662.7000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41506908.700000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79972370.700000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AR$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java - MaxHeapSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AR$3:$AR$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>57235212.100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AS$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scala - MaxHeapSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AS$3:$AS$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>46784026.600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91132976.299999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>471223720.60000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>915771905.29999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AT$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scala - Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AT$3:$AT$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45794301.799999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89891184.099999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>446236115.89999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>880471643.29999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="95547392"/>
+        <c:axId val="95248384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95547392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95248384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95248384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time(us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95547392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Threadring</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - 50K</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> - 1000P</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AW$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AV$3:$AV$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AW$3:$AW$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4966635.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9529656.3000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47639415.600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94435243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AX$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java - Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AV$3:$AV$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AX$3:$AX$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>57682131.399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135850167.19999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AY$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scala - Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AV$3:$AV$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AY$3:$AY$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>167036322.40000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>333409441.80000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1661569895.9000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3317861619.0999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AZ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ooErlang</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AV$3:$AV$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AZ$3:$AZ$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4619494.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9491989.0999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47306817.600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92179645.099999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java - MaxHeapSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AV$3:$AV$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BA$3:$BA$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>77411046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scala - MaxHeapSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AV$3:$AV$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BB$3:$BB$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>167800475.30000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>333897027.19999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1670783499.9000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3292023335.5999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scala - Default</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AV$3:$AV$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$BC$3:$BC$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>142151352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>279637913.89999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1384896261.4000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2774866197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="95548416"/>
+        <c:axId val="95250688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95548416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95250688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95250688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time(us)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95548416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -198,16 +1771,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -219,16 +1792,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.2042766E6</c:v>
+                  <c:v>4204276.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6977972E6</c:v>
+                  <c:v>8697797.1999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.07725542E7</c:v>
+                  <c:v>40772554.200000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.19155998E7</c:v>
+                  <c:v>81915599.799999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -236,15 +1809,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AF$2</c:f>
+              <c:f>Sheet1!$AH$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Java - Normal</c:v>
+                  <c:v>ooErlang</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -256,126 +1829,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AF$3:$AF$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.79759273E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.35889401E8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AG$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scala - Normal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AG$3:$AG$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.31504628E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.66631419E7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.253368752E8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.369840445E8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AH$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ooErlang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,181 +1850,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.0055843E6</c:v>
+                  <c:v>4005584.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4728074E6</c:v>
+                  <c:v>8472807.4000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.02865825E7</c:v>
+                  <c:v>40286582.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.07957601E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AI$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Java - MaxHeapSize</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AI$3:$AI$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.717053E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AJ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scala - MaxHeapSize</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AJ$3:$AJ$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AK$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scala - Default</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AK$3:$AK$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.33807268E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.38032284E7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.124203715E8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.193577964E8</c:v>
+                  <c:v>80795760.099999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,11 +1876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095125880"/>
-        <c:axId val="2095124152"/>
+        <c:axId val="95548928"/>
+        <c:axId val="95252992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095125880"/>
+        <c:axId val="95548928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,10 +1897,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095124152"/>
+        <c:crossAx val="95252992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -610,7 +1908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095124152"/>
+        <c:axId val="95252992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +1924,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2095125880"/>
+        <c:crossAx val="95548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -647,10 +1945,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -712,16 +2010,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,16 +2031,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.1639384E6</c:v>
+                  <c:v>4163938.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4691077E6</c:v>
+                  <c:v>8469107.6999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.22289798E7</c:v>
+                  <c:v>42228979.799999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.34138836E7</c:v>
+                  <c:v>83413883.599999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,15 +2048,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AO$2</c:f>
+              <c:f>Sheet1!$AQ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Java - Normal</c:v>
+                  <c:v>ooErlang</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -770,126 +2068,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AO$3:$AO$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.78727329E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.359884382E8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AP$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scala - Normal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AP$3:$AP$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.66933115E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.24813221E7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.729584461E8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.154408571E8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AQ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ooErlang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,181 +2089,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.3884426E6</c:v>
+                  <c:v>4388442.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0996627E6</c:v>
+                  <c:v>8099662.7000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.15069087E7</c:v>
+                  <c:v>41506908.700000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.99723707E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AR$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Java - MaxHeapSize</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AR$3:$AR$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.72352121E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AS$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scala - MaxHeapSize</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AS$3:$AS$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AT$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scala - Default</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AT$3:$AT$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.57943018E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.98911841E7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.462361159E8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.804716433E8</c:v>
+                  <c:v>79972370.700000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1092,11 +2115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095056952"/>
-        <c:axId val="2083380168"/>
+        <c:axId val="93768704"/>
+        <c:axId val="95255296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095056952"/>
+        <c:axId val="93768704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,10 +2136,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083380168"/>
+        <c:crossAx val="95255296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1124,7 +2147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083380168"/>
+        <c:axId val="95255296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +2176,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095056952"/>
+        <c:crossAx val="93768704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1174,10 +2197,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1246,16 +2269,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,16 +2290,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.9666352E6</c:v>
+                  <c:v>4966635.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5296563E6</c:v>
+                  <c:v>9529656.3000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.76394156E7</c:v>
+                  <c:v>47639415.600000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4435243E7</c:v>
+                  <c:v>94435243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,15 +2307,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AX$2</c:f>
+              <c:f>Sheet1!$AZ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Java - Normal</c:v>
+                  <c:v>ooErlang</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1304,126 +2327,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AX$3:$AX$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.76821314E7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.358501672E8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AY$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scala - Normal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AV$3:$AV$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AY$3:$AY$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.670363224E8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.334094418E8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6615698959E9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.3178616191E9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AZ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ooErlang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AV$3:$AV$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,181 +2348,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.6194948E6</c:v>
+                  <c:v>4619494.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4919891E6</c:v>
+                  <c:v>9491989.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.73068176E7</c:v>
+                  <c:v>47306817.600000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.21796451E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$BA$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Java - MaxHeapSize</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AV$3:$AV$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$BA$3:$BA$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7.7411046E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$BB$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scala - MaxHeapSize</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AV$3:$AV$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$BB$3:$BB$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$BC$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scala - Default</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AV$3:$AV$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$BC$3:$BC$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.42151352E8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.796379139E8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3848962614E9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.774866197E9</c:v>
+                  <c:v>92179645.099999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,11 +2374,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2095094520"/>
-        <c:axId val="2095106328"/>
+        <c:axId val="95549440"/>
+        <c:axId val="96076928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2095094520"/>
+        <c:axId val="95549440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1647,10 +2395,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095106328"/>
+        <c:crossAx val="96076928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1658,7 +2406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095106328"/>
+        <c:axId val="96076928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,756 +2435,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095094520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Threadring - 5KB - 1000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>P</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AE$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Erlang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AE$3:$AE$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.2042766E6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.6977972E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.07725542E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.19155998E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AH$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ooErlang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AD$3:$AD$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AH$3:$AH$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0055843E6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4728074E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.02865825E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.07957601E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2083265800"/>
-        <c:axId val="2083256840"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2083265800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2083256840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2083256840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9525">
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="2083265800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Threadring</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> - 10K - 1000P</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AN$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Erlang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AN$3:$AN$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.1639384E6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.4691077E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.22289798E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.34138836E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AQ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ooErlang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AM$3:$AM$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AQ$3:$AQ$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.3884426E6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0996627E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.15069087E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.99723707E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2083189816"/>
-        <c:axId val="2083182232"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2083189816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2083182232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2083182232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time(us)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083189816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Threadring</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - 50K</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> - 1000P</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AW$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Erlang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AV$3:$AV$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AW$3:$AW$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.9666352E6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.5296563E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.76394156E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.4435243E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$AZ$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ooErlang</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$AV$3:$AV$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$AZ$3:$AZ$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.6194948E6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4919891E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.73068176E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.21796451E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2083136440"/>
-        <c:axId val="2083132872"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2083136440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2083132872"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2083132872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time(us)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2083136440"/>
+        <c:crossAx val="95549440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2937,56 +2936,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="17.5" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
-    <col min="16" max="16" width="20.83203125" customWidth="1"/>
-    <col min="17" max="17" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" customWidth="1"/>
     <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" customWidth="1"/>
-    <col min="23" max="23" width="17.1640625" customWidth="1"/>
-    <col min="25" max="25" width="21.5" customWidth="1"/>
-    <col min="26" max="26" width="20.5" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" customWidth="1"/>
-    <col min="32" max="32" width="15.83203125" customWidth="1"/>
-    <col min="33" max="33" width="17.83203125" customWidth="1"/>
-    <col min="35" max="35" width="22.5" customWidth="1"/>
-    <col min="36" max="36" width="23.83203125" customWidth="1"/>
-    <col min="37" max="37" width="16.6640625" customWidth="1"/>
-    <col min="38" max="38" width="11.33203125" customWidth="1"/>
-    <col min="40" max="40" width="10.1640625" customWidth="1"/>
-    <col min="41" max="41" width="15.83203125" customWidth="1"/>
-    <col min="42" max="42" width="16.5" customWidth="1"/>
-    <col min="43" max="43" width="10.5" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" customWidth="1"/>
-    <col min="45" max="45" width="23.33203125" customWidth="1"/>
-    <col min="46" max="46" width="17.6640625" customWidth="1"/>
-    <col min="50" max="50" width="17.33203125" customWidth="1"/>
-    <col min="51" max="51" width="19.5" customWidth="1"/>
-    <col min="53" max="53" width="24.5" customWidth="1"/>
-    <col min="54" max="54" width="23.5" customWidth="1"/>
-    <col min="55" max="55" width="17.83203125" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1"/>
+    <col min="25" max="25" width="21.42578125" customWidth="1"/>
+    <col min="26" max="26" width="20.42578125" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" customWidth="1"/>
+    <col min="33" max="33" width="17.85546875" customWidth="1"/>
+    <col min="35" max="35" width="22.42578125" customWidth="1"/>
+    <col min="36" max="36" width="23.85546875" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" customWidth="1"/>
+    <col min="38" max="38" width="11.28515625" customWidth="1"/>
+    <col min="40" max="40" width="10.140625" customWidth="1"/>
+    <col min="41" max="41" width="15.85546875" customWidth="1"/>
+    <col min="42" max="42" width="16.42578125" customWidth="1"/>
+    <col min="43" max="43" width="10.42578125" customWidth="1"/>
+    <col min="44" max="44" width="20.85546875" customWidth="1"/>
+    <col min="45" max="45" width="23.28515625" customWidth="1"/>
+    <col min="46" max="46" width="17.7109375" customWidth="1"/>
+    <col min="50" max="50" width="17.28515625" customWidth="1"/>
+    <col min="51" max="51" width="19.42578125" customWidth="1"/>
+    <col min="53" max="53" width="24.42578125" customWidth="1"/>
+    <col min="54" max="54" width="23.42578125" customWidth="1"/>
+    <col min="55" max="55" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3003,16 +3004,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -3030,16 +3031,16 @@
         <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
@@ -3057,19 +3058,19 @@
         <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -3167,16 +3168,16 @@
         <v>5</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>2</v>
@@ -3194,16 +3195,16 @@
         <v>5</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>2</v>
@@ -3221,19 +3222,19 @@
         <v>5</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -3341,9 +3342,9 @@
         <f t="shared" si="0"/>
         <v>57170530</v>
       </c>
-      <c r="AJ3" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="AJ3">
+        <f t="shared" si="0"/>
+        <v>33399005.300000001</v>
       </c>
       <c r="AK3">
         <f t="shared" si="0"/>
@@ -3364,7 +3365,7 @@
         <v>57872732.899999999</v>
       </c>
       <c r="AP3">
-        <f t="shared" ref="AP3:AQ3" si="3">SUM(N2:N11)/10</f>
+        <f t="shared" ref="AP3:AS3" si="3">SUM(N2:N11)/10</f>
         <v>46693311.5</v>
       </c>
       <c r="AQ3">
@@ -3375,9 +3376,9 @@
         <f t="shared" ref="AR3" si="4">SUM(P2:P11)/10</f>
         <v>57235212.100000001</v>
       </c>
-      <c r="AS3" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="AS3">
+        <f t="shared" si="3"/>
+        <v>46784026.600000001</v>
       </c>
       <c r="AT3">
         <f t="shared" ref="AT3" si="5">SUM(R2:R11)/10</f>
@@ -3409,16 +3410,16 @@
         <f t="shared" si="6"/>
         <v>77411046</v>
       </c>
-      <c r="BB3" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="BB3">
+        <f t="shared" si="6"/>
+        <v>167800475.30000001</v>
       </c>
       <c r="BC3">
         <f t="shared" si="6"/>
         <v>142151352</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5000</v>
       </c>
@@ -3522,9 +3523,9 @@
         <f>SUM(F13:F22)/10</f>
         <v>8472807.4000000004</v>
       </c>
-      <c r="AJ4" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="AJ4">
+        <f>SUM(H13:H22)/10</f>
+        <v>67061344.700000003</v>
       </c>
       <c r="AK4">
         <f>SUM(I13:I22)/10</f>
@@ -3552,9 +3553,9 @@
         <f t="shared" si="7"/>
         <v>8099662.7000000002</v>
       </c>
-      <c r="AS4" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="AS4">
+        <f t="shared" si="7"/>
+        <v>91132976.299999997</v>
       </c>
       <c r="AT4">
         <f t="shared" si="7"/>
@@ -3582,16 +3583,16 @@
         <f>SUM(X13:X22)/10</f>
         <v>9491989.0999999996</v>
       </c>
-      <c r="BB4" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="BB4">
+        <f>SUM(Z13:Z22)/10</f>
+        <v>333897027.19999999</v>
       </c>
       <c r="BC4">
         <f>SUM(AA13:AA22)/10</f>
         <v>279637913.89999998</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5000</v>
       </c>
@@ -3691,9 +3692,9 @@
         <f>SUM(F24:F33)/10</f>
         <v>40286582.5</v>
       </c>
-      <c r="AJ5" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="AJ5">
+        <f>SUM(H24:H33)/10</f>
+        <v>336078305.60000002</v>
       </c>
       <c r="AK5">
         <f>SUM(I24:I33)/10</f>
@@ -3717,9 +3718,9 @@
         <f t="shared" si="8"/>
         <v>41506908.700000003</v>
       </c>
-      <c r="AS5" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="AS5">
+        <f t="shared" si="8"/>
+        <v>471223720.60000002</v>
       </c>
       <c r="AT5">
         <f t="shared" si="8"/>
@@ -3743,16 +3744,16 @@
         <f>SUM(X24:X33)/10</f>
         <v>47306817.600000001</v>
       </c>
-      <c r="BB5" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="BB5">
+        <f>SUM(Z24:Z33)/10</f>
+        <v>1670783499.9000001</v>
       </c>
       <c r="BC5">
         <f>SUM(AA24:AA33)/10</f>
         <v>1384896261.4000001</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -3852,9 +3853,9 @@
         <f t="shared" si="9"/>
         <v>80795760.099999994</v>
       </c>
-      <c r="AJ6" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="AJ6">
+        <f t="shared" si="9"/>
+        <v>650689438.20000005</v>
       </c>
       <c r="AK6">
         <f t="shared" si="9"/>
@@ -3878,9 +3879,9 @@
         <f t="shared" si="10"/>
         <v>79972370.700000003</v>
       </c>
-      <c r="AS6" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="AS6">
+        <f t="shared" si="10"/>
+        <v>915771905.29999995</v>
       </c>
       <c r="AT6">
         <f t="shared" si="10"/>
@@ -3904,16 +3905,16 @@
         <f>SUM(X35:X44)/10</f>
         <v>92179645.099999994</v>
       </c>
-      <c r="BB6" t="e">
-        <f>SUM(#REF!)/10</f>
-        <v>#REF!</v>
+      <c r="BB6">
+        <f>SUM(Z35:Z44)/10</f>
+        <v>3292023335.5999999</v>
       </c>
       <c r="BC6">
         <f>SUM(AA35:AA44)/10</f>
         <v>2774866197</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>142989882</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>142259349</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5000</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>142799693</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5000</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>142278499</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5000</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>142596844</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5000</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>275816530</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5000</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>279926941</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5000</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>280298198</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5000</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>280083703</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5000</v>
       </c>
@@ -4698,7 +4699,7 @@
         <v>280578171</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5000</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>277654887</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5000</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>280916992</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5000</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>280016092</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5000</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>279714161</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5000</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>281373464</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5000</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>1391325843</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5000</v>
       </c>
@@ -5198,7 +5199,7 @@
         <v>1380707468</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5000</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>1372005849</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5000</v>
       </c>
@@ -5328,7 +5329,7 @@
         <v>1372884688</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5000</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>1386407090</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5000</v>
       </c>
@@ -5458,7 +5459,7 @@
         <v>1394577354</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5000</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>1379213873</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5000</v>
       </c>
@@ -5588,7 +5589,7 @@
         <v>1390340093</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5000</v>
       </c>
@@ -5653,7 +5654,7 @@
         <v>1394267941</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5000</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>1387232415</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5000</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>2781045224</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5000</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>2782713255</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5000</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>2767716472</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5000</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>2773703800</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5000</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>2785383158</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5000</v>
       </c>
@@ -6108,7 +6109,7 @@
         <v>2754817663</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5000</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>2791749137</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5000</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>2787951866</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5000</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>2752422345</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5000</v>
       </c>
@@ -6368,13 +6369,13 @@
         <v>2771159050</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="W45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>1</v>
       </c>
@@ -6382,788 +6383,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
-      <c r="A48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34">
-      <c r="A50">
-        <v>5000</v>
-      </c>
-      <c r="B50">
-        <v>5000</v>
-      </c>
-      <c r="C50">
-        <v>4204276.5999999996</v>
-      </c>
-      <c r="D50">
-        <v>57975927.299999997</v>
-      </c>
-      <c r="E50">
-        <v>33150462.800000001</v>
-      </c>
-      <c r="F50">
-        <v>4005584.3</v>
-      </c>
-      <c r="G50">
-        <v>57170530</v>
-      </c>
-      <c r="H50">
-        <v>33399005.300000001</v>
-      </c>
-      <c r="I50">
-        <v>33380726.800000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34">
-      <c r="A51">
-        <v>5000</v>
-      </c>
-      <c r="B51">
-        <v>10000</v>
-      </c>
-      <c r="C51">
-        <v>8697797.1999999993</v>
-      </c>
-      <c r="E51">
-        <v>66663141.899999999</v>
-      </c>
-      <c r="F51">
-        <v>8472807.4000000004</v>
-      </c>
-      <c r="H51">
-        <v>67061344.700000003</v>
-      </c>
-      <c r="I51">
-        <v>63803228.399999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34">
-      <c r="A52">
-        <v>5000</v>
-      </c>
-      <c r="B52">
-        <v>50000</v>
-      </c>
-      <c r="C52">
-        <v>40772554.200000003</v>
-      </c>
-      <c r="E52">
-        <v>325336875.19999999</v>
-      </c>
-      <c r="F52">
-        <v>40286582.5</v>
-      </c>
-      <c r="H52">
-        <v>336078305.60000002</v>
-      </c>
-      <c r="I52">
-        <v>312420371.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34">
-      <c r="A53">
-        <v>5000</v>
-      </c>
-      <c r="B53">
-        <v>100000</v>
-      </c>
-      <c r="C53">
-        <v>81915599.799999997</v>
-      </c>
-      <c r="E53">
-        <v>636984044.5</v>
-      </c>
-      <c r="F53">
-        <v>80795760.099999994</v>
-      </c>
-      <c r="H53">
-        <v>650689438.20000005</v>
-      </c>
-      <c r="I53">
-        <v>619357796.39999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34">
-      <c r="F54" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34">
-      <c r="A56">
-        <v>5000</v>
-      </c>
-      <c r="B56">
-        <v>5000</v>
-      </c>
-      <c r="C56">
-        <v>4163938.4</v>
-      </c>
-      <c r="D56">
-        <v>57872732.899999999</v>
-      </c>
-      <c r="E56">
-        <v>46693311.5</v>
-      </c>
-      <c r="F56">
-        <v>4388442.5999999996</v>
-      </c>
-      <c r="G56">
-        <v>57235212.100000001</v>
-      </c>
-      <c r="H56">
-        <v>46784026.600000001</v>
-      </c>
-      <c r="I56">
-        <v>45794301.799999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34">
-      <c r="A57">
-        <v>5000</v>
-      </c>
-      <c r="B57">
-        <v>10000</v>
-      </c>
-      <c r="C57">
-        <v>8469107.6999999993</v>
-      </c>
-      <c r="E57">
-        <v>92481322.099999994</v>
-      </c>
-      <c r="F57">
-        <v>8099662.7000000002</v>
-      </c>
-      <c r="H57">
-        <v>91132976.299999997</v>
-      </c>
-      <c r="I57">
-        <v>89891184.099999994</v>
-      </c>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="9:34" x14ac:dyDescent="0.25">
+      <c r="I49" s="6"/>
+    </row>
+    <row r="55" spans="9:34" x14ac:dyDescent="0.25">
+      <c r="I55" s="6"/>
+    </row>
+    <row r="57" spans="9:34" x14ac:dyDescent="0.25">
       <c r="AH57" s="2"/>
     </row>
-    <row r="58" spans="1:34">
-      <c r="A58">
-        <v>5000</v>
-      </c>
-      <c r="B58">
-        <v>50000</v>
-      </c>
-      <c r="C58">
-        <v>42228979.799999997</v>
-      </c>
-      <c r="E58">
-        <v>472958446.10000002</v>
-      </c>
-      <c r="F58">
-        <v>41506908.700000003</v>
-      </c>
-      <c r="H58">
-        <v>471223720.60000002</v>
-      </c>
-      <c r="I58">
-        <v>446236115.89999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34">
-      <c r="A59">
-        <v>5000</v>
-      </c>
-      <c r="B59">
-        <v>100000</v>
-      </c>
-      <c r="C59">
-        <v>83413883.599999994</v>
-      </c>
-      <c r="E59">
-        <v>915440857.10000002</v>
-      </c>
-      <c r="F59">
-        <v>79972370.700000003</v>
-      </c>
-      <c r="H59">
-        <v>915771905.29999995</v>
-      </c>
-      <c r="I59">
-        <v>880471643.29999995</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34">
-      <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34">
-      <c r="A62">
-        <v>5000</v>
-      </c>
-      <c r="B62">
-        <v>5000</v>
-      </c>
-      <c r="C62">
-        <v>4966635.2</v>
-      </c>
-      <c r="D62">
-        <v>57682131.399999999</v>
-      </c>
-      <c r="E62">
-        <v>167036322.40000001</v>
-      </c>
-      <c r="F62">
-        <v>4619494.8</v>
-      </c>
-      <c r="G62">
-        <v>77411046</v>
-      </c>
-      <c r="H62">
-        <v>167800475.30000001</v>
-      </c>
-      <c r="I62">
-        <v>142151352</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34">
-      <c r="A63">
-        <v>5000</v>
-      </c>
-      <c r="B63">
-        <v>10000</v>
-      </c>
-      <c r="C63">
-        <v>9529656.3000000007</v>
-      </c>
-      <c r="E63">
-        <v>333409441.80000001</v>
-      </c>
-      <c r="F63">
-        <v>9491989.0999999996</v>
-      </c>
-      <c r="H63">
-        <v>333897027.19999999</v>
-      </c>
-      <c r="I63">
-        <v>279637913.89999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34">
-      <c r="A64">
-        <v>5000</v>
-      </c>
-      <c r="B64">
-        <v>50000</v>
-      </c>
-      <c r="C64">
-        <v>47639415.600000001</v>
-      </c>
-      <c r="E64">
-        <v>1661569895.9000001</v>
-      </c>
-      <c r="F64">
-        <v>47306817.600000001</v>
-      </c>
-      <c r="H64">
-        <v>1670783499.9000001</v>
-      </c>
-      <c r="I64">
-        <v>1384896261.4000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
-      <c r="A65">
-        <v>5000</v>
-      </c>
-      <c r="B65">
-        <v>100000</v>
-      </c>
-      <c r="C65">
-        <v>94435243</v>
-      </c>
-      <c r="E65">
-        <v>3317861619.0999999</v>
-      </c>
-      <c r="F65">
-        <v>92179645.099999994</v>
-      </c>
-      <c r="H65">
-        <v>3292023335.5999999</v>
-      </c>
-      <c r="I65">
-        <v>2774866197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
-      <c r="A67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" t="s">
-        <v>1</v>
-      </c>
+    <row r="61" spans="9:34" x14ac:dyDescent="0.25">
+      <c r="I61" s="6"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
       <c r="W67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
-      <c r="A68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
-        <v>5</v>
-      </c>
-      <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
-      <c r="A69">
-        <v>5000</v>
-      </c>
-      <c r="B69">
-        <v>5000</v>
-      </c>
-      <c r="C69">
-        <f>C50*10</f>
-        <v>42042766</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ref="D69:I69" si="11">D50*10</f>
-        <v>579759273</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="11"/>
-        <v>331504628</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="11"/>
-        <v>40055843</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="11"/>
-        <v>571705300</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="11"/>
-        <v>333990053</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="11"/>
-        <v>333807268</v>
-      </c>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
-      <c r="A70">
-        <v>5000</v>
-      </c>
-      <c r="B70">
-        <v>10000</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ref="C70:I70" si="12">C51*10</f>
-        <v>86977972</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="12"/>
-        <v>666631419</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="12"/>
-        <v>84728074</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="12"/>
-        <v>670613447</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="12"/>
-        <v>638032284</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
-      <c r="A71">
-        <v>5000</v>
-      </c>
-      <c r="B71">
-        <v>50000</v>
-      </c>
-      <c r="C71">
-        <f t="shared" ref="C71:I71" si="13">C52*10</f>
-        <v>407725542</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="13"/>
-        <v>3253368752</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="13"/>
-        <v>402865825</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="13"/>
-        <v>3360783056</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="13"/>
-        <v>3124203715</v>
-      </c>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W71" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
-      <c r="A72">
-        <v>5000</v>
-      </c>
-      <c r="B72">
-        <v>100000</v>
-      </c>
-      <c r="C72">
-        <f t="shared" ref="C72:I72" si="14">C53*10</f>
-        <v>819155998</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="14"/>
-        <v>6369840445</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="14"/>
-        <v>807957601</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="14"/>
-        <v>6506894382</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="14"/>
-        <v>6193577964</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
-      <c r="F73" t="s">
-        <v>1</v>
-      </c>
-      <c r="G73" t="s">
-        <v>1</v>
-      </c>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
-      <c r="A74" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
-      <c r="A75">
-        <v>5000</v>
-      </c>
-      <c r="B75">
-        <v>5000</v>
-      </c>
-      <c r="C75">
-        <f t="shared" ref="C75:I75" si="15">C56*10</f>
-        <v>41639384</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="15"/>
-        <v>578727329</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="15"/>
-        <v>466933115</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="15"/>
-        <v>43884426</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="15"/>
-        <v>572352121</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="15"/>
-        <v>467840266</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="15"/>
-        <v>457943018</v>
-      </c>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W75" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
-      <c r="A76">
-        <v>5000</v>
-      </c>
-      <c r="B76">
-        <v>10000</v>
-      </c>
-      <c r="C76">
-        <f t="shared" ref="C76:I76" si="16">C57*10</f>
-        <v>84691077</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="16"/>
-        <v>924813221</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="16"/>
-        <v>80996627</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="16"/>
-        <v>911329763</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="16"/>
-        <v>898911841</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
-      <c r="A77">
-        <v>5000</v>
-      </c>
-      <c r="B77">
-        <v>50000</v>
-      </c>
-      <c r="C77">
-        <f t="shared" ref="C77:I77" si="17">C58*10</f>
-        <v>422289798</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="17"/>
-        <v>4729584461</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="17"/>
-        <v>415069087</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="17"/>
-        <v>4712237206</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="17"/>
-        <v>4462361159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
-      <c r="A78">
-        <v>5000</v>
-      </c>
-      <c r="B78">
-        <v>100000</v>
-      </c>
-      <c r="C78">
-        <f t="shared" ref="C78:I78" si="18">C59*10</f>
-        <v>834138836</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="18"/>
-        <v>9154408571</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="18"/>
-        <v>799723707</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="18"/>
-        <v>9157719053</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="18"/>
-        <v>8804716433</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
@@ -7171,202 +6438,40 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27">
-      <c r="A80" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>8</v>
-      </c>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I80" s="6"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81">
-        <v>5000</v>
-      </c>
-      <c r="B81">
-        <v>5000</v>
-      </c>
-      <c r="C81">
-        <f t="shared" ref="C81:I81" si="19">C62*10</f>
-        <v>49666352</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="19"/>
-        <v>576821314</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="19"/>
-        <v>1670363224</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="19"/>
-        <v>46194948</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="19"/>
-        <v>774110460</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="19"/>
-        <v>1678004753</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="19"/>
-        <v>1421513520</v>
-      </c>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82">
-        <v>5000</v>
-      </c>
-      <c r="B82">
-        <v>10000</v>
-      </c>
-      <c r="C82">
-        <f t="shared" ref="C82:I82" si="20">C63*10</f>
-        <v>95296563</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="20"/>
-        <v>3334094418</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="20"/>
-        <v>94919891</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="20"/>
-        <v>3338970272</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="20"/>
-        <v>2796379139</v>
-      </c>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11">
-      <c r="A83">
-        <v>5000</v>
-      </c>
-      <c r="B83">
-        <v>50000</v>
-      </c>
-      <c r="C83">
-        <f t="shared" ref="C83:I83" si="21">C64*10</f>
-        <v>476394156</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="21"/>
-        <v>16615698959</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="21"/>
-        <v>473068176</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="21"/>
-        <v>16707834999</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="21"/>
-        <v>13848962614</v>
-      </c>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84">
-        <v>5000</v>
-      </c>
-      <c r="B84">
-        <v>100000</v>
-      </c>
-      <c r="C84">
-        <f t="shared" ref="C84:I84" si="22">C65*10</f>
-        <v>944352430</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="22"/>
-        <v>33178616191</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="22"/>
-        <v>921796451</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="22"/>
-        <v>32920233356</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="22"/>
-        <v>27748661970</v>
-      </c>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K89" s="3"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -7395,7 +6500,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7421,7 +6526,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
